--- a/梁军/学徒功能优先级确定.xlsx
+++ b/梁军/学徒功能优先级确定.xlsx
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简化排行榜的内容,只显示上一天有效学习时间排行榜,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,10 @@
   </si>
   <si>
     <t>我们的重心是手机上的应用,如果还有继续开发的可能在继续开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化排行榜的内容,只显示上一天有效学习时间排行榜, 问题 排行榜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +221,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -233,10 +233,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +545,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,11 +557,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -764,13 +764,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -778,13 +778,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -792,26 +792,26 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
+      <c r="A23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -843,43 +843,43 @@
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
